--- a/corectness_data.xlsx
+++ b/corectness_data.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Desktop\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C253699-E89D-4A09-8D02-C59907FAF6B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D585EB-DC40-4EA0-B57F-AE1294789418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{BD44A75A-E0C1-403E-B2AD-863F52D83BDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="correctness" sheetId="1" r:id="rId1"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
   <si>
     <t>i(11)*p(10^2-2^10)+l(100)/a-j(10)-f(0.8)*h(37)*h(37)</t>
   </si>
@@ -422,6 +426,22 @@
   </si>
   <si>
     <t>0-3^12/7^6+5.5+919/22.3*341+875-283</t>
+  </si>
+  <si>
+    <t>37.6/90+491.20/71*751.03+591-127.102-34.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parse Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shunting Yard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,6 +524,5390 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Parse Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15451531085968001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29007339477539001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55238366127014105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68721532621655201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75533485412597601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EDA-4C7D-85B1-73D6948C3D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2055465487"/>
+        <c:axId val="2055051135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2055465487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055051135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2055051135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055465487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Shunting Yard</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.2776546478271401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14158511161804199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25682187080383301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33947801589965798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36832165718078602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D60-403A-A84F-2FFA8BE59A68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2055461887"/>
+        <c:axId val="2055048223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2055461887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055048223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2055048223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055461887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>t_ps/t_sy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8666556824793339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0487563378692593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1508435381349025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0243293940414606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0507478705093614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A4C-4562-B42D-F6415B778D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69197407"/>
+        <c:axId val="70894831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69197407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70894831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70894831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69197407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Parse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24075889587402299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44465422630309998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66751519807815496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89112186431884699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12733078002929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAB5-4E71-B7BA-170220126D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69190607"/>
+        <c:axId val="1967040015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69190607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967040015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1967040015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69190607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Shunting Yard</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$30:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11645078659057601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22852087020874001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33067297935485801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44135999479565402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54355812072753895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA48-43E2-BD52-66D9EAA54F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="81812511"/>
+        <c:axId val="69118207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81812511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69118207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69118207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81812511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>t_ps/t_sy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.067473332923857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9457926354688533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0186566177269007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190363304934986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0739838796270504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCA2-4F2B-8AE1-4D0BB3343F21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69183407"/>
+        <c:axId val="1967044591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69183407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967044591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1967044591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69183407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,6 +6293,393 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9927B1C7-E935-4E21-AB6C-BD2083AF771A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B52AD15-2F53-42F3-AF6D-70BE11B9E539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368617</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>522922</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C486F76-CFDF-4B45-848A-5FA7A065A668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286702</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505777</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3C6E22-DD69-4220-9075-665CC36260B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20002</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172402</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361878BE-03F9-40EC-ACAC-FF4CB66C24F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267652</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4CD28F-D443-4AE9-A2DF-BB358C5BA8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5">
+            <v>500</v>
+          </cell>
+          <cell r="C5">
+            <v>0.15451531085968001</v>
+          </cell>
+          <cell r="D5">
+            <v>8.2776546478271401E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>1.8666556824793339</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1000</v>
+          </cell>
+          <cell r="C6">
+            <v>0.29007339477539001</v>
+          </cell>
+          <cell r="D6">
+            <v>0.14158511161804199</v>
+          </cell>
+          <cell r="E6">
+            <v>2.0487563378692593</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>1500</v>
+          </cell>
+          <cell r="C7">
+            <v>0.55238366127014105</v>
+          </cell>
+          <cell r="D7">
+            <v>0.25682187080383301</v>
+          </cell>
+          <cell r="E7">
+            <v>2.1508435381349025</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>2000</v>
+          </cell>
+          <cell r="C8">
+            <v>0.68721532621655201</v>
+          </cell>
+          <cell r="D8">
+            <v>0.33947801589965798</v>
+          </cell>
+          <cell r="E8">
+            <v>2.0243293940414606</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2500</v>
+          </cell>
+          <cell r="C9">
+            <v>0.75533485412597601</v>
+          </cell>
+          <cell r="D9">
+            <v>0.36832165718078602</v>
+          </cell>
+          <cell r="E9">
+            <v>2.0507478705093614</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>500</v>
+          </cell>
+          <cell r="C30">
+            <v>0.24075889587402299</v>
+          </cell>
+          <cell r="D30">
+            <v>0.11645078659057601</v>
+          </cell>
+          <cell r="E30">
+            <v>2.067473332923857</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>1000</v>
+          </cell>
+          <cell r="C31">
+            <v>0.44465422630309998</v>
+          </cell>
+          <cell r="D31">
+            <v>0.22852087020874001</v>
+          </cell>
+          <cell r="E31">
+            <v>1.9457926354688533</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1500</v>
+          </cell>
+          <cell r="C32">
+            <v>0.66751519807815496</v>
+          </cell>
+          <cell r="D32">
+            <v>0.33067297935485801</v>
+          </cell>
+          <cell r="E32">
+            <v>2.0186566177269007</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>2000</v>
+          </cell>
+          <cell r="C33">
+            <v>0.89112186431884699</v>
+          </cell>
+          <cell r="D33">
+            <v>0.44135999479565402</v>
+          </cell>
+          <cell r="E33">
+            <v>2.0190363304934986</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>2500</v>
+          </cell>
+          <cell r="C34">
+            <v>1.12733078002929</v>
+          </cell>
+          <cell r="D34">
+            <v>0.54355812072753895</v>
+          </cell>
+          <cell r="E34">
+            <v>2.0739838796270504</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA2CAA-2D6D-4A8A-ABC6-C25FEE714E01}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1198,9 +6992,10 @@
     <col min="4" max="4" width="153.25" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
@@ -1220,9 +7015,12 @@
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1242,6 +7040,9 @@
         <v>2045.6079999999999</v>
       </c>
       <c r="H2">
+        <v>2045.6079999999999</v>
+      </c>
+      <c r="I2">
         <f>(E2-F2)/E2</f>
         <v>0</v>
       </c>
@@ -1264,7 +7065,10 @@
         <v>119.979</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="0">(E3-F3)/E3</f>
+        <v>119.979</v>
+      </c>
+      <c r="I3">
+        <f>(E3-F3)/E3</f>
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +7090,10 @@
         <v>309.89400000000001</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <v>309.89400000000001</v>
+      </c>
+      <c r="I4">
+        <f>(E4-F4)/E4</f>
         <v>0</v>
       </c>
     </row>
@@ -1308,7 +7115,10 @@
         <v>9573</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <v>9573</v>
+      </c>
+      <c r="I5">
+        <f>(E5-F5)/E5</f>
         <v>0</v>
       </c>
     </row>
@@ -1330,7 +7140,10 @@
         <v>3405</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <v>3405</v>
+      </c>
+      <c r="I6">
+        <f>(E6-F6)/E6</f>
         <v>0</v>
       </c>
     </row>
@@ -1352,7 +7165,10 @@
         <v>1933.6679999999999</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <v>1933.6679999999999</v>
+      </c>
+      <c r="I7">
+        <f>(E7-F7)/E7</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +7190,10 @@
         <v>18674402.588</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <v>18674402.588</v>
+      </c>
+      <c r="I8">
+        <f>(E8-F8)/E8</f>
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +7215,10 @@
         <v>-36.875999999999998</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <v>-36.875999999999998</v>
+      </c>
+      <c r="I9">
+        <f>(E9-F9)/E9</f>
         <v>0</v>
       </c>
     </row>
@@ -1418,7 +7240,10 @@
         <v>-70407.687999999995</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <v>-70407.687999999995</v>
+      </c>
+      <c r="I10">
+        <f>(E10-F10)/E10</f>
         <v>0</v>
       </c>
     </row>
@@ -1440,10 +7265,12 @@
         <v>38.957000000000001</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <v>38.957000000000001</v>
+      </c>
+      <c r="I11">
+        <f>(E11-F11)/E11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -1465,7 +7292,10 @@
         <v>-2038</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <v>-2038</v>
+      </c>
+      <c r="I12">
+        <f>(E12-F12)/E12</f>
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +7317,10 @@
         <v>-86.822999999999993</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <v>-86.822999999999993</v>
+      </c>
+      <c r="I13">
+        <f>(E13-F13)/E13</f>
         <v>0</v>
       </c>
     </row>
@@ -1509,7 +7342,10 @@
         <v>102.98</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <v>102.98</v>
+      </c>
+      <c r="I14">
+        <f>(E14-F14)/E14</f>
         <v>0</v>
       </c>
     </row>
@@ -1531,7 +7367,10 @@
         <v>-25.800999999999998</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <v>-25.800999999999998</v>
+      </c>
+      <c r="I15">
+        <f>(E15-F15)/E15</f>
         <v>0</v>
       </c>
     </row>
@@ -1553,7 +7392,10 @@
         <v>-437745.527</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <v>-437745.527</v>
+      </c>
+      <c r="I16">
+        <f>(E16-F16)/E16</f>
         <v>0</v>
       </c>
     </row>
@@ -1577,9 +7419,11 @@
         <v>23</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
@@ -1598,6 +7442,9 @@
         <v>395301.24300000002</v>
       </c>
       <c r="H21">
+        <v>395301.24300000002</v>
+      </c>
+      <c r="I21">
         <f>(E21-F21)/E21</f>
         <v>0</v>
       </c>
@@ -1619,7 +7466,10 @@
         <v>1780.4780000000001</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H35" si="1">(E22-F22)/E22</f>
+        <v>1780.4780000000001</v>
+      </c>
+      <c r="I22">
+        <f>(E22-F22)/E22</f>
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +7490,10 @@
         <v>37.798999999999999</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <v>37.798999999999999</v>
+      </c>
+      <c r="I23">
+        <f>(E23-F23)/E23</f>
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +7502,7 @@
         <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>5625.8339999999998</v>
@@ -1661,7 +7514,10 @@
         <v>5625.8339999999998</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <v>5625.8339999999998</v>
+      </c>
+      <c r="I24">
+        <f>(E24-F24)/E24</f>
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +7538,10 @@
         <v>5288192.1550000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <v>5288192.1550000003</v>
+      </c>
+      <c r="I25">
+        <f>(E25-F25)/E25</f>
         <v>0</v>
       </c>
     </row>
@@ -1703,7 +7562,10 @@
         <v>1900.9949999999999</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <v>1900.9949999999999</v>
+      </c>
+      <c r="I26">
+        <f>(E26-F26)/E26</f>
         <v>0</v>
       </c>
     </row>
@@ -1724,7 +7586,10 @@
         <v>-1394.7380000000001</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <v>-1394.7380000000001</v>
+      </c>
+      <c r="I27">
+        <f>(E27-F27)/E27</f>
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +7610,10 @@
         <v>-35.814</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <v>-35.814</v>
+      </c>
+      <c r="I28">
+        <f>(E28-F28)/E28</f>
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +7634,10 @@
         <v>-2121.027</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <v>-2121.027</v>
+      </c>
+      <c r="I29">
+        <f>(E29-F29)/E29</f>
         <v>0</v>
       </c>
     </row>
@@ -1787,7 +7658,10 @@
         <v>371.584</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <v>371.584</v>
+      </c>
+      <c r="I30">
+        <f>(E30-F30)/E30</f>
         <v>0</v>
       </c>
     </row>
@@ -1808,7 +7682,10 @@
         <v>-5372.0959999999995</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <v>-5372.0959999999995</v>
+      </c>
+      <c r="I31">
+        <f>(E31-F31)/E31</f>
         <v>0</v>
       </c>
     </row>
@@ -1829,11 +7706,14 @@
         <v>512.12699999999995</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <v>512.12699999999995</v>
+      </c>
+      <c r="I32">
+        <f>(E32-F32)/E32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>123</v>
       </c>
@@ -1850,11 +7730,14 @@
         <v>-82.703999999999994</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <v>-82.703999999999994</v>
+      </c>
+      <c r="I33">
+        <f>(E33-F33)/E33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>124</v>
       </c>
@@ -1871,11 +7754,14 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="I34">
+        <f>(E34-F34)/E34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>125</v>
       </c>
@@ -1892,11 +7778,14 @@
         <v>14645.852999999999</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <v>14645.852999999999</v>
+      </c>
+      <c r="I35">
+        <f>(E35-F35)/E35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
@@ -1913,13 +7802,16 @@
         <v>23</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -1936,15 +7828,18 @@
         <v>110804.973</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H93" si="2">(G41-E41)/E41</f>
+        <v>110804.973</v>
+      </c>
+      <c r="I41">
+        <f>(G41-E41)/E41</f>
         <v>-1.1732325425627092E-9</v>
       </c>
-      <c r="I41">
-        <f>IF(-0.001&lt;H41 &amp; 0.001&gt;H41,1,0)</f>
+      <c r="J41">
+        <f>IF(-0.001&lt;I41 &amp; 0.001&gt;I41,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>1</v>
       </c>
@@ -1961,15 +7856,18 @@
         <v>-12292.266</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <v>-12292.263999999999</v>
+      </c>
+      <c r="I42">
+        <f>(G42-E42)/E42</f>
         <v>-2.7659591776681954E-6</v>
       </c>
-      <c r="I42">
-        <f t="shared" ref="I42:I55" si="3">IF(-0.001&lt;H42 &amp; 0.001&gt;H42,1,0)</f>
+      <c r="J42">
+        <f t="shared" ref="J42:J55" si="0">IF(-0.001&lt;I42 &amp; 0.001&gt;I42,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -1986,15 +7884,18 @@
         <v>246.42599999999999</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <v>246.42599999999999</v>
+      </c>
+      <c r="I43">
+        <f>(G43-E43)/E43</f>
         <v>-1.6232027088545652E-6</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="3"/>
+      <c r="J43">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -2011,15 +7912,18 @@
         <v>-1263.471</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <v>-1263.471</v>
+      </c>
+      <c r="I44">
+        <f>(G44-E44)/E44</f>
         <v>0</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="3"/>
+      <c r="J44">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -2036,15 +7940,18 @@
         <v>3.984</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <v>3.984</v>
+      </c>
+      <c r="I45">
+        <f>(G45-E45)/E45</f>
         <v>1.1798580655849723E-4</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="3"/>
+      <c r="J45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>5</v>
       </c>
@@ -2062,15 +7969,18 @@
         <v>-1655651325.3670001</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <v>-1655651325.3670001</v>
+      </c>
+      <c r="I46">
+        <f>(G46-E46)/E46</f>
         <v>-6.0034632903290652E-3</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="3"/>
+      <c r="J46">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>6</v>
       </c>
@@ -2087,15 +7997,18 @@
         <v>-1028.81</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <v>-1028.81</v>
+      </c>
+      <c r="I47">
+        <f>(G47-E47)/E47</f>
         <v>0</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="3"/>
+      <c r="J47">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -2112,15 +8025,18 @@
         <v>4.1859999999999999</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="I48">
+        <f>(G48-E48)/E48</f>
         <v>1.047843123090161E-3</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="3"/>
+      <c r="J48">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -2137,15 +8053,18 @@
         <v>-81.096999999999994</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <v>-81.096999999999994</v>
+      </c>
+      <c r="I49">
+        <f>(G49-E49)/E49</f>
         <v>3.1073995715467995E-6</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="3"/>
+      <c r="J49">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>9</v>
       </c>
@@ -2162,15 +8081,18 @@
         <v>811.65899999999999</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <v>811.65899999999999</v>
+      </c>
+      <c r="I50">
+        <f>(G50-E50)/E50</f>
         <v>-4.2135903863720659E-7</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="3"/>
+      <c r="J50">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>10</v>
       </c>
@@ -2187,15 +8109,18 @@
         <v>2713422.5610000002</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <v>2713422.5610000002</v>
+      </c>
+      <c r="I51">
+        <f>(G51-E51)/E51</f>
         <v>-1.4741522085743828E-10</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="3"/>
+      <c r="J51">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>11</v>
       </c>
@@ -2212,15 +8137,18 @@
         <v>-0.152</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <v>-0.152</v>
+      </c>
+      <c r="I52">
+        <f>(G52-E52)/E52</f>
         <v>-2.8209670012465634E-3</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="3"/>
+      <c r="J52">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -2237,15 +8165,18 @@
         <v>1940.579</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <v>1940.579</v>
+      </c>
+      <c r="I53">
+        <f>(G53-E53)/E53</f>
         <v>2.2158340131068372E-7</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="3"/>
+      <c r="J53">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>13</v>
       </c>
@@ -2262,15 +8193,18 @@
         <v>14.558</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <v>14.558</v>
+      </c>
+      <c r="I54">
+        <f>(G54-E54)/E54</f>
         <v>-2.0606801618272797E-5</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="3"/>
+      <c r="J54">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -2287,15 +8221,18 @@
         <v>119.854</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <v>119.854</v>
+      </c>
+      <c r="I55">
+        <f>(G55-E55)/E55</f>
         <v>5.0060932502372441E-7</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="3"/>
+      <c r="J55">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D59" s="2" t="s">
         <v>19</v>
       </c>
@@ -2309,13 +8246,16 @@
         <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>79</v>
       </c>
@@ -2332,15 +8272,18 @@
         <v>-8326.4770000000008</v>
       </c>
       <c r="H60">
+        <v>-8326.4770000000008</v>
+      </c>
+      <c r="I60">
         <f>(G60-E60)/E60</f>
         <v>-6.0049402655788525E-8</v>
       </c>
-      <c r="I60">
-        <f>IF(-0.001&lt;H60 &amp; 0.001&gt;H60,1,0)</f>
+      <c r="J60">
+        <f>IF(-0.001&lt;I60 &amp; 0.001&gt;I60,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>80</v>
       </c>
@@ -2357,15 +8300,18 @@
         <v>-361.48099999999999</v>
       </c>
       <c r="H61">
+        <v>-361.48099999999999</v>
+      </c>
+      <c r="I61">
         <f>(G61-E61)/E61</f>
         <v>1.1065600754598688E-6</v>
       </c>
-      <c r="I61">
-        <f t="shared" ref="I61:I74" si="4">IF(-0.001&lt;H61 &amp; 0.001&gt;H61,1,0)</f>
+      <c r="J61">
+        <f t="shared" ref="J61:J74" si="1">IF(-0.001&lt;I61 &amp; 0.001&gt;I61,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>81</v>
       </c>
@@ -2382,15 +8328,18 @@
         <v>7623.41</v>
       </c>
       <c r="H62">
+        <v>7623.41</v>
+      </c>
+      <c r="I62">
         <f>(G62-E62)/E62</f>
         <v>2.7546728555427953E-8</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="4"/>
+      <c r="J62">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>82</v>
       </c>
@@ -2407,15 +8356,18 @@
         <v>-2499.5</v>
       </c>
       <c r="H63">
+        <v>-2499.5</v>
+      </c>
+      <c r="I63">
         <f>(G63-E63)/E63</f>
         <v>1.8803764285974178E-7</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
+      <c r="J63">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -2432,15 +8384,18 @@
         <v>108.742</v>
       </c>
       <c r="H64">
+        <v>108.742</v>
+      </c>
+      <c r="I64">
         <f>(G64-E64)/E64</f>
         <v>1.3794120095160304E-7</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="4"/>
+      <c r="J64">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>84</v>
       </c>
@@ -2457,15 +8412,18 @@
         <v>-101.081</v>
       </c>
       <c r="H65">
+        <v>-101.081</v>
+      </c>
+      <c r="I65">
         <f>(G65-E65)/E65</f>
         <v>1.9786151277655038E-6</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="4"/>
+      <c r="J65">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>85</v>
       </c>
@@ -2482,15 +8440,18 @@
         <v>335.91300000000001</v>
       </c>
       <c r="H66">
+        <v>335.91300000000001</v>
+      </c>
+      <c r="I66">
         <f>(G66-E66)/E66</f>
         <v>8.4248075676294846E-7</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="4"/>
+      <c r="J66">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>86</v>
       </c>
@@ -2507,15 +8468,18 @@
         <v>36.151000000000003</v>
       </c>
       <c r="H67">
+        <v>36.151000000000003</v>
+      </c>
+      <c r="I67">
         <f>(G67-E67)/E67</f>
         <v>1.106482326728113E-5</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="4"/>
+      <c r="J67">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>87</v>
       </c>
@@ -2532,15 +8496,18 @@
         <v>-47.241999999999997</v>
       </c>
       <c r="H68">
+        <v>-47.241999999999997</v>
+      </c>
+      <c r="I68">
         <f>(G68-E68)/E68</f>
         <v>0</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="4"/>
+      <c r="J68">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>88</v>
       </c>
@@ -2557,15 +8524,18 @@
         <v>-0.153</v>
       </c>
       <c r="H69">
+        <v>-0.153</v>
+      </c>
+      <c r="I69">
         <f>(G69-E69)/E69</f>
         <v>-3.2015890335770566E-4</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
+      <c r="J69">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>89</v>
       </c>
@@ -2582,15 +8552,18 @@
         <v>-689.49300000000005</v>
       </c>
       <c r="H70">
+        <v>-689.49300000000005</v>
+      </c>
+      <c r="I70">
         <f>(G70-E70)/E70</f>
         <v>1.4503412593310937E-7</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="4"/>
+      <c r="J70">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>90</v>
       </c>
@@ -2607,15 +8580,18 @@
         <v>2.71</v>
       </c>
       <c r="H71">
+        <v>2.71</v>
+      </c>
+      <c r="I71">
         <f>(G71-E71)/E71</f>
         <v>-1.6934401147562431E-4</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="4"/>
+      <c r="J71">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>91</v>
       </c>
@@ -2632,15 +8608,18 @@
         <v>-7887.6440000000002</v>
       </c>
       <c r="H72">
+        <v>-7887.6440000000002</v>
+      </c>
+      <c r="I72">
         <f>(G72-E72)/E72</f>
         <v>1.2694430313526944E-3</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="4"/>
+      <c r="J72">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>92</v>
       </c>
@@ -2657,15 +8636,18 @@
         <v>-190485.837</v>
       </c>
       <c r="H73">
+        <v>-190485.837</v>
+      </c>
+      <c r="I73">
         <f>(G73-E73)/E73</f>
         <v>2.1208925475448006E-9</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="4"/>
+      <c r="J73">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>93</v>
       </c>
@@ -2682,15 +8664,18 @@
         <v>55.576999999999998</v>
       </c>
       <c r="H74">
+        <v>55.576999999999998</v>
+      </c>
+      <c r="I74">
         <f>(G74-E74)/E74</f>
         <v>-7.0172420835702978E-6</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="4"/>
+      <c r="J74">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D79" s="2" t="s">
         <v>19</v>
       </c>
@@ -2704,13 +8689,16 @@
         <v>23</v>
       </c>
       <c r="H79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>64</v>
       </c>
@@ -2727,15 +8715,18 @@
         <v>-108809.24099999999</v>
       </c>
       <c r="H80">
+        <v>-108809.24099999999</v>
+      </c>
+      <c r="I80">
         <f>(G80-E80)/E80</f>
         <v>0</v>
       </c>
-      <c r="I80">
-        <f>IF(-0.001&lt;H80 &amp; 0.001&gt;H80,1,0)</f>
+      <c r="J80">
+        <f>IF(-0.001&lt;I80 &amp; 0.001&gt;I80,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>65</v>
       </c>
@@ -2752,15 +8743,18 @@
         <v>2982.8139999999999</v>
       </c>
       <c r="H81">
+        <v>2982.8139999999999</v>
+      </c>
+      <c r="I81">
         <f>(G81-E81)/E81</f>
         <v>-1.00576157272703E-7</v>
       </c>
-      <c r="I81">
-        <f t="shared" ref="I81:I94" si="5">IF(-0.001&lt;H81 &amp; 0.001&gt;H81,1,0)</f>
+      <c r="J81">
+        <f t="shared" ref="J81:J94" si="2">IF(-0.001&lt;I81 &amp; 0.001&gt;I81,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>66</v>
       </c>
@@ -2778,15 +8772,18 @@
         <v>-1645325502.901</v>
       </c>
       <c r="H82">
+        <v>-1645325502.901</v>
+      </c>
+      <c r="I82">
         <f>(G82-E82)/E82</f>
         <v>-2.7332504725356688E-6</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="5"/>
+      <c r="J82">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>67</v>
       </c>
@@ -2803,15 +8800,18 @@
         <v>179073.03700000001</v>
       </c>
       <c r="H83">
+        <v>179072.83600000001</v>
+      </c>
+      <c r="I83">
         <f>(G83-E83)/E83</f>
         <v>-1.6752940570915653E-8</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="5"/>
+      <c r="J83">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>68</v>
       </c>
@@ -2828,15 +8828,18 @@
         <v>45442.351999999999</v>
       </c>
       <c r="H84">
+        <v>45442.351999999999</v>
+      </c>
+      <c r="I84">
         <f>(G84-E84)/E84</f>
         <v>0</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="5"/>
+      <c r="J84">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>69</v>
       </c>
@@ -2853,15 +8856,18 @@
         <v>-169571.31599999999</v>
       </c>
       <c r="H85">
+        <v>-169572.53899999999</v>
+      </c>
+      <c r="I85">
         <f>(G85-E85)/E85</f>
         <v>-2.3588894722095825E-8</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="5"/>
+      <c r="J85">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>70</v>
       </c>
@@ -2878,15 +8884,18 @@
         <v>794012144.73699999</v>
       </c>
       <c r="H86">
+        <v>794012144.73699999</v>
+      </c>
+      <c r="I86">
         <f>(G86-E86)/E86</f>
         <v>0</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="5"/>
+      <c r="J86">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>71</v>
       </c>
@@ -2903,15 +8912,18 @@
         <v>353642.26699999999</v>
       </c>
       <c r="H87">
+        <v>353642.26699999999</v>
+      </c>
+      <c r="I87">
         <f>(G87-E87)/E87</f>
         <v>-4.5243459511492863E-10</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="5"/>
+      <c r="J87">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>72</v>
       </c>
@@ -2928,15 +8940,18 @@
         <v>223.43799999999999</v>
       </c>
       <c r="H88">
+        <v>223.43700000000001</v>
+      </c>
+      <c r="I88">
         <f>(G88-E88)/E88</f>
         <v>8.5482399266160203E-7</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="5"/>
+      <c r="J88">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>73</v>
       </c>
@@ -2953,15 +8968,18 @@
         <v>-65371.642</v>
       </c>
       <c r="H89">
+        <v>-65389.648999999998</v>
+      </c>
+      <c r="I89">
         <f>(G89-E89)/E89</f>
         <v>6.4248083267474816E-7</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="5"/>
+      <c r="J89">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>74</v>
       </c>
@@ -2978,15 +8996,18 @@
         <v>84990815619.802994</v>
       </c>
       <c r="H90">
+        <v>84990815619.802994</v>
+      </c>
+      <c r="I90">
         <f>(G90-E90)/E90</f>
         <v>5.9178029745839307E-3</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="5"/>
+      <c r="J90">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>75</v>
       </c>
@@ -3003,15 +9024,18 @@
         <v>-39193433.725000001</v>
       </c>
       <c r="H91">
+        <v>-39193433.725000001</v>
+      </c>
+      <c r="I91">
         <f>(G91-E91)/E91</f>
         <v>-7.0164813450611107E-9</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="5"/>
+      <c r="J91">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>76</v>
       </c>
@@ -3028,15 +9052,18 @@
         <v>19.375</v>
       </c>
       <c r="H92">
+        <v>19.375</v>
+      </c>
+      <c r="I92">
         <f>(G92-E92)/E92</f>
         <v>5.1613169616239025E-6</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="5"/>
+      <c r="J92">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>77</v>
       </c>
@@ -3053,15 +9080,18 @@
         <v>-4980.9430000000002</v>
       </c>
       <c r="H93">
+        <v>-4980.9430000000002</v>
+      </c>
+      <c r="I93">
         <f>(G93-E93)/E93</f>
         <v>2.0076520090658261E-8</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="5"/>
+      <c r="J93">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>78</v>
       </c>
@@ -3078,11 +9108,14 @@
         <v>-5044.7309999999998</v>
       </c>
       <c r="H94">
+        <v>-5044.7309999999998</v>
+      </c>
+      <c r="I94">
         <f>(G94-E94)/E94</f>
         <v>1.9822666430190059E-7</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="5"/>
+      <c r="J94">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3092,4 +9125,200 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57F3EC1-D31A-462B-BBCF-D1A6599BB080}">
+  <dimension ref="B4:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>0.15451531085968001</v>
+      </c>
+      <c r="D5">
+        <v>8.2776546478271401E-2</v>
+      </c>
+      <c r="E5">
+        <f>C5/D5</f>
+        <v>1.8666556824793339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>0.29007339477539001</v>
+      </c>
+      <c r="D6">
+        <v>0.14158511161804199</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="0">C6/D6</f>
+        <v>2.0487563378692593</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>0.55238366127014105</v>
+      </c>
+      <c r="D7">
+        <v>0.25682187080383301</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.1508435381349025</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>0.68721532621655201</v>
+      </c>
+      <c r="D8">
+        <v>0.33947801589965798</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.0243293940414606</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2500</v>
+      </c>
+      <c r="C9">
+        <v>0.75533485412597601</v>
+      </c>
+      <c r="D9">
+        <v>0.36832165718078602</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.0507478705093614</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>0.24075889587402299</v>
+      </c>
+      <c r="D30">
+        <v>0.11645078659057601</v>
+      </c>
+      <c r="E30">
+        <f>C30/D30</f>
+        <v>2.067473332923857</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31">
+        <v>0.44465422630309998</v>
+      </c>
+      <c r="D31">
+        <v>0.22852087020874001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E34" si="1">C31/D31</f>
+        <v>1.9457926354688533</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1500</v>
+      </c>
+      <c r="C32">
+        <v>0.66751519807815496</v>
+      </c>
+      <c r="D32">
+        <v>0.33067297935485801</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2.0186566177269007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2000</v>
+      </c>
+      <c r="C33">
+        <v>0.89112186431884699</v>
+      </c>
+      <c r="D33">
+        <v>0.44135999479565402</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2.0190363304934986</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2500</v>
+      </c>
+      <c r="C34">
+        <v>1.12733078002929</v>
+      </c>
+      <c r="D34">
+        <v>0.54355812072753895</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>2.0739838796270504</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/corectness_data.xlsx
+++ b/corectness_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Desktop\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D585EB-DC40-4EA0-B57F-AE1294789418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAC8F3-0D6F-49CF-822C-760C468E8318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{BD44A75A-E0C1-403E-B2AD-863F52D83BDE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{BD44A75A-E0C1-403E-B2AD-863F52D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="correctness" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="2" r:id="rId2"/>
+    <sheet name="time 0704" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>i(11)*p(10^2-2^10)+l(100)/a-j(10)-f(0.8)*h(37)*h(37)</t>
   </si>
@@ -441,6 +442,10 @@
   </si>
   <si>
     <t>Shunting Yard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡雅晴電腦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,13 +478,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -491,12 +509,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,8 +530,12 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6981,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA2CAA-2D6D-4A8A-ABC6-C25FEE714E01}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView topLeftCell="E37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6994,7 +7019,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7043,7 +7068,7 @@
         <v>2045.6079999999999</v>
       </c>
       <c r="I2">
-        <f>(E2-F2)/E2</f>
+        <f t="shared" ref="I2:I16" si="0">(E2-F2)/E2</f>
         <v>0</v>
       </c>
     </row>
@@ -7068,7 +7093,7 @@
         <v>119.979</v>
       </c>
       <c r="I3">
-        <f>(E3-F3)/E3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7093,7 +7118,7 @@
         <v>309.89400000000001</v>
       </c>
       <c r="I4">
-        <f>(E4-F4)/E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7118,7 +7143,7 @@
         <v>9573</v>
       </c>
       <c r="I5">
-        <f>(E5-F5)/E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7143,7 +7168,7 @@
         <v>3405</v>
       </c>
       <c r="I6">
-        <f>(E6-F6)/E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7168,7 +7193,7 @@
         <v>1933.6679999999999</v>
       </c>
       <c r="I7">
-        <f>(E7-F7)/E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,7 +7218,7 @@
         <v>18674402.588</v>
       </c>
       <c r="I8">
-        <f>(E8-F8)/E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7218,7 +7243,7 @@
         <v>-36.875999999999998</v>
       </c>
       <c r="I9">
-        <f>(E9-F9)/E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7243,7 +7268,7 @@
         <v>-70407.687999999995</v>
       </c>
       <c r="I10">
-        <f>(E10-F10)/E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7268,7 +7293,7 @@
         <v>38.957000000000001</v>
       </c>
       <c r="I11">
-        <f>(E11-F11)/E11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
@@ -7295,7 +7320,7 @@
         <v>-2038</v>
       </c>
       <c r="I12">
-        <f>(E12-F12)/E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7320,7 +7345,7 @@
         <v>-86.822999999999993</v>
       </c>
       <c r="I13">
-        <f>(E13-F13)/E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7345,7 +7370,7 @@
         <v>102.98</v>
       </c>
       <c r="I14">
-        <f>(E14-F14)/E14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7370,7 +7395,7 @@
         <v>-25.800999999999998</v>
       </c>
       <c r="I15">
-        <f>(E15-F15)/E15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7395,7 +7420,7 @@
         <v>-437745.527</v>
       </c>
       <c r="I16">
-        <f>(E16-F16)/E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7445,7 +7470,7 @@
         <v>395301.24300000002</v>
       </c>
       <c r="I21">
-        <f>(E21-F21)/E21</f>
+        <f t="shared" ref="I21:I35" si="1">(E21-F21)/E21</f>
         <v>0</v>
       </c>
     </row>
@@ -7469,7 +7494,7 @@
         <v>1780.4780000000001</v>
       </c>
       <c r="I22">
-        <f>(E22-F22)/E22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7493,7 +7518,7 @@
         <v>37.798999999999999</v>
       </c>
       <c r="I23">
-        <f>(E23-F23)/E23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7517,7 +7542,7 @@
         <v>5625.8339999999998</v>
       </c>
       <c r="I24">
-        <f>(E24-F24)/E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7541,7 +7566,7 @@
         <v>5288192.1550000003</v>
       </c>
       <c r="I25">
-        <f>(E25-F25)/E25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7565,7 +7590,7 @@
         <v>1900.9949999999999</v>
       </c>
       <c r="I26">
-        <f>(E26-F26)/E26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7589,7 +7614,7 @@
         <v>-1394.7380000000001</v>
       </c>
       <c r="I27">
-        <f>(E27-F27)/E27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7613,7 +7638,7 @@
         <v>-35.814</v>
       </c>
       <c r="I28">
-        <f>(E28-F28)/E28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7637,7 +7662,7 @@
         <v>-2121.027</v>
       </c>
       <c r="I29">
-        <f>(E29-F29)/E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7661,7 +7686,7 @@
         <v>371.584</v>
       </c>
       <c r="I30">
-        <f>(E30-F30)/E30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7685,7 +7710,7 @@
         <v>-5372.0959999999995</v>
       </c>
       <c r="I31">
-        <f>(E31-F31)/E31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7709,7 +7734,7 @@
         <v>512.12699999999995</v>
       </c>
       <c r="I32">
-        <f>(E32-F32)/E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7733,7 +7758,7 @@
         <v>-82.703999999999994</v>
       </c>
       <c r="I33">
-        <f>(E33-F33)/E33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7757,7 +7782,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="I34">
-        <f>(E34-F34)/E34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,7 +7806,7 @@
         <v>14645.852999999999</v>
       </c>
       <c r="I35">
-        <f>(E35-F35)/E35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7831,7 +7856,7 @@
         <v>110804.973</v>
       </c>
       <c r="I41">
-        <f>(G41-E41)/E41</f>
+        <f t="shared" ref="I41:I55" si="2">(G41-E41)/E41</f>
         <v>-1.1732325425627092E-9</v>
       </c>
       <c r="J41">
@@ -7839,31 +7864,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+    <row r="42" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>-12292.3</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>-12292.266</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>-12292.266</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>-12292.263999999999</v>
       </c>
-      <c r="I42">
-        <f>(G42-E42)/E42</f>
+      <c r="I42" s="4">
+        <f t="shared" si="2"/>
         <v>-2.7659591776681954E-6</v>
       </c>
-      <c r="J42">
-        <f t="shared" ref="J42:J55" si="0">IF(-0.001&lt;I42 &amp; 0.001&gt;I42,1,0)</f>
+      <c r="J42" s="4">
+        <f t="shared" ref="J42:J55" si="3">IF(-0.001&lt;I42 &amp; 0.001&gt;I42,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7887,11 +7912,11 @@
         <v>246.42599999999999</v>
       </c>
       <c r="I43">
-        <f>(G43-E43)/E43</f>
+        <f t="shared" si="2"/>
         <v>-1.6232027088545652E-6</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7915,11 +7940,11 @@
         <v>-1263.471</v>
       </c>
       <c r="I44">
-        <f>(G44-E44)/E44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7943,11 +7968,11 @@
         <v>3.984</v>
       </c>
       <c r="I45">
-        <f>(G45-E45)/E45</f>
+        <f t="shared" si="2"/>
         <v>1.1798580655849723E-4</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7972,11 +7997,11 @@
         <v>-1655651325.3670001</v>
       </c>
       <c r="I46">
-        <f>(G46-E46)/E46</f>
+        <f t="shared" si="2"/>
         <v>-6.0034632903290652E-3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8000,11 +8025,11 @@
         <v>-1028.81</v>
       </c>
       <c r="I47">
-        <f>(G47-E47)/E47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8028,11 +8053,11 @@
         <v>4.1859999999999999</v>
       </c>
       <c r="I48">
-        <f>(G48-E48)/E48</f>
+        <f t="shared" si="2"/>
         <v>1.047843123090161E-3</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8056,11 +8081,11 @@
         <v>-81.096999999999994</v>
       </c>
       <c r="I49">
-        <f>(G49-E49)/E49</f>
+        <f t="shared" si="2"/>
         <v>3.1073995715467995E-6</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8084,11 +8109,11 @@
         <v>811.65899999999999</v>
       </c>
       <c r="I50">
-        <f>(G50-E50)/E50</f>
+        <f t="shared" si="2"/>
         <v>-4.2135903863720659E-7</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8112,11 +8137,11 @@
         <v>2713422.5610000002</v>
       </c>
       <c r="I51">
-        <f>(G51-E51)/E51</f>
+        <f t="shared" si="2"/>
         <v>-1.4741522085743828E-10</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8140,11 +8165,11 @@
         <v>-0.152</v>
       </c>
       <c r="I52">
-        <f>(G52-E52)/E52</f>
+        <f t="shared" si="2"/>
         <v>-2.8209670012465634E-3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8168,11 +8193,11 @@
         <v>1940.579</v>
       </c>
       <c r="I53">
-        <f>(G53-E53)/E53</f>
+        <f t="shared" si="2"/>
         <v>2.2158340131068372E-7</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8196,11 +8221,11 @@
         <v>14.558</v>
       </c>
       <c r="I54">
-        <f>(G54-E54)/E54</f>
+        <f t="shared" si="2"/>
         <v>-2.0606801618272797E-5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8224,11 +8249,11 @@
         <v>119.854</v>
       </c>
       <c r="I55">
-        <f>(G55-E55)/E55</f>
+        <f t="shared" si="2"/>
         <v>5.0060932502372441E-7</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8275,7 +8300,7 @@
         <v>-8326.4770000000008</v>
       </c>
       <c r="I60">
-        <f>(G60-E60)/E60</f>
+        <f t="shared" ref="I60:I74" si="4">(G60-E60)/E60</f>
         <v>-6.0049402655788525E-8</v>
       </c>
       <c r="J60">
@@ -8303,11 +8328,11 @@
         <v>-361.48099999999999</v>
       </c>
       <c r="I61">
-        <f>(G61-E61)/E61</f>
+        <f t="shared" si="4"/>
         <v>1.1065600754598688E-6</v>
       </c>
       <c r="J61">
-        <f t="shared" ref="J61:J74" si="1">IF(-0.001&lt;I61 &amp; 0.001&gt;I61,1,0)</f>
+        <f t="shared" ref="J61:J74" si="5">IF(-0.001&lt;I61 &amp; 0.001&gt;I61,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8331,11 +8356,11 @@
         <v>7623.41</v>
       </c>
       <c r="I62">
-        <f>(G62-E62)/E62</f>
+        <f t="shared" si="4"/>
         <v>2.7546728555427953E-8</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8359,11 +8384,11 @@
         <v>-2499.5</v>
       </c>
       <c r="I63">
-        <f>(G63-E63)/E63</f>
+        <f t="shared" si="4"/>
         <v>1.8803764285974178E-7</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8387,11 +8412,11 @@
         <v>108.742</v>
       </c>
       <c r="I64">
-        <f>(G64-E64)/E64</f>
+        <f t="shared" si="4"/>
         <v>1.3794120095160304E-7</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8415,11 +8440,11 @@
         <v>-101.081</v>
       </c>
       <c r="I65">
-        <f>(G65-E65)/E65</f>
+        <f t="shared" si="4"/>
         <v>1.9786151277655038E-6</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8443,11 +8468,11 @@
         <v>335.91300000000001</v>
       </c>
       <c r="I66">
-        <f>(G66-E66)/E66</f>
+        <f t="shared" si="4"/>
         <v>8.4248075676294846E-7</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8471,11 +8496,11 @@
         <v>36.151000000000003</v>
       </c>
       <c r="I67">
-        <f>(G67-E67)/E67</f>
+        <f t="shared" si="4"/>
         <v>1.106482326728113E-5</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8499,11 +8524,11 @@
         <v>-47.241999999999997</v>
       </c>
       <c r="I68">
-        <f>(G68-E68)/E68</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8527,11 +8552,11 @@
         <v>-0.153</v>
       </c>
       <c r="I69">
-        <f>(G69-E69)/E69</f>
+        <f t="shared" si="4"/>
         <v>-3.2015890335770566E-4</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8555,11 +8580,11 @@
         <v>-689.49300000000005</v>
       </c>
       <c r="I70">
-        <f>(G70-E70)/E70</f>
+        <f t="shared" si="4"/>
         <v>1.4503412593310937E-7</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8583,11 +8608,11 @@
         <v>2.71</v>
       </c>
       <c r="I71">
-        <f>(G71-E71)/E71</f>
+        <f t="shared" si="4"/>
         <v>-1.6934401147562431E-4</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8611,11 +8636,11 @@
         <v>-7887.6440000000002</v>
       </c>
       <c r="I72">
-        <f>(G72-E72)/E72</f>
+        <f t="shared" si="4"/>
         <v>1.2694430313526944E-3</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8639,11 +8664,11 @@
         <v>-190485.837</v>
       </c>
       <c r="I73">
-        <f>(G73-E73)/E73</f>
+        <f t="shared" si="4"/>
         <v>2.1208925475448006E-9</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8667,11 +8692,11 @@
         <v>55.576999999999998</v>
       </c>
       <c r="I74">
-        <f>(G74-E74)/E74</f>
+        <f t="shared" si="4"/>
         <v>-7.0172420835702978E-6</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8718,7 +8743,7 @@
         <v>-108809.24099999999</v>
       </c>
       <c r="I80">
-        <f>(G80-E80)/E80</f>
+        <f t="shared" ref="I80:I94" si="6">(G80-E80)/E80</f>
         <v>0</v>
       </c>
       <c r="J80">
@@ -8746,11 +8771,11 @@
         <v>2982.8139999999999</v>
       </c>
       <c r="I81">
-        <f>(G81-E81)/E81</f>
+        <f t="shared" si="6"/>
         <v>-1.00576157272703E-7</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:J94" si="2">IF(-0.001&lt;I81 &amp; 0.001&gt;I81,1,0)</f>
+        <f t="shared" ref="J81:J94" si="7">IF(-0.001&lt;I81 &amp; 0.001&gt;I81,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8775,39 +8800,39 @@
         <v>-1645325502.901</v>
       </c>
       <c r="I82">
-        <f>(G82-E82)/E82</f>
+        <f t="shared" si="6"/>
         <v>-2.7332504725356688E-6</v>
       </c>
       <c r="J82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="83" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>179073.04</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>179073.03700000001</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>179073.03700000001</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>179072.83600000001</v>
       </c>
-      <c r="I83">
-        <f>(G83-E83)/E83</f>
+      <c r="I83" s="4">
+        <f t="shared" si="6"/>
         <v>-1.6752940570915653E-8</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="2"/>
+      <c r="J83" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8831,39 +8856,39 @@
         <v>45442.351999999999</v>
       </c>
       <c r="I84">
-        <f>(G84-E84)/E84</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="85" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <v>-169571.32</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>-169571.31599999999</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>-169571.31599999999</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>-169572.53899999999</v>
       </c>
-      <c r="I85">
-        <f>(G85-E85)/E85</f>
+      <c r="I85" s="4">
+        <f t="shared" si="6"/>
         <v>-2.3588894722095825E-8</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="2"/>
+      <c r="J85" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8887,11 +8912,11 @@
         <v>794012144.73699999</v>
       </c>
       <c r="I86">
-        <f>(G86-E86)/E86</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8915,67 +8940,67 @@
         <v>353642.26699999999</v>
       </c>
       <c r="I87">
-        <f>(G87-E87)/E87</f>
+        <f t="shared" si="6"/>
         <v>-4.5243459511492863E-10</v>
       </c>
       <c r="J87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="88" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>223.43780899999999</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="4">
         <v>223.43799999999999</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <v>223.43799999999999</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="4">
         <v>223.43700000000001</v>
       </c>
-      <c r="I88">
-        <f>(G88-E88)/E88</f>
+      <c r="I88" s="4">
+        <f t="shared" si="6"/>
         <v>8.5482399266160203E-7</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="2"/>
+      <c r="J88" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="89" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>-65371.6</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="4">
         <v>-65371.642</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>-65371.642</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="4">
         <v>-65389.648999999998</v>
       </c>
-      <c r="I89">
-        <f>(G89-E89)/E89</f>
+      <c r="I89" s="4">
+        <f t="shared" si="6"/>
         <v>6.4248083267474816E-7</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="2"/>
+      <c r="J89" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8999,11 +9024,11 @@
         <v>84990815619.802994</v>
       </c>
       <c r="I90">
-        <f>(G90-E90)/E90</f>
+        <f t="shared" si="6"/>
         <v>5.9178029745839307E-3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9027,11 +9052,11 @@
         <v>-39193433.725000001</v>
       </c>
       <c r="I91">
-        <f>(G91-E91)/E91</f>
+        <f t="shared" si="6"/>
         <v>-7.0164813450611107E-9</v>
       </c>
       <c r="J91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9055,11 +9080,11 @@
         <v>19.375</v>
       </c>
       <c r="I92">
-        <f>(G92-E92)/E92</f>
+        <f t="shared" si="6"/>
         <v>5.1613169616239025E-6</v>
       </c>
       <c r="J92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9083,11 +9108,11 @@
         <v>-4980.9430000000002</v>
       </c>
       <c r="I93">
-        <f>(G93-E93)/E93</f>
+        <f t="shared" si="6"/>
         <v>2.0076520090658261E-8</v>
       </c>
       <c r="J93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9111,11 +9136,11 @@
         <v>-5044.7309999999998</v>
       </c>
       <c r="I94">
-        <f>(G94-E94)/E94</f>
+        <f t="shared" si="6"/>
         <v>1.9822666430190059E-7</v>
       </c>
       <c r="J94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9321,4 +9346,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052E3BD-89DB-41CD-8DDC-01053D665924}">
+  <dimension ref="B1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>20210704</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>0.144171953201293</v>
+      </c>
+      <c r="D6">
+        <v>6.9812297821044894E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.193552255630493</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>0.27986168861389099</v>
+      </c>
+      <c r="D7">
+        <v>0.14086246490478499</v>
+      </c>
+      <c r="E7">
+        <v>0.41820526123046797</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>0.51274943351745605</v>
+      </c>
+      <c r="D8">
+        <v>0.24626183509826599</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>0.67788720130920399</v>
+      </c>
+      <c r="D9">
+        <v>0.32678532600402799</v>
+      </c>
+      <c r="E9">
+        <v>1.06450247764587</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2500</v>
+      </c>
+      <c r="C10">
+        <v>0.723646640777587</v>
+      </c>
+      <c r="D10">
+        <v>0.34778404235839799</v>
+      </c>
+      <c r="E10">
+        <v>1.0049915313720701</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>